--- a/Data/working_data_file.xlsx
+++ b/Data/working_data_file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/skiss_wlu_ca/Documents/projects_folder/News_deserts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/skiss_wlu_ca/Documents/projects_folder/News_deserts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10412" documentId="8_{2FC82F62-ABEE-B542-B012-2CF671290486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{565A087D-15D4-5B4F-BD80-0D2E7F3E5393}"/>
+  <xr:revisionPtr revIDLastSave="10415" documentId="8_{2FC82F62-ABEE-B542-B012-2CF671290486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED76731-B79E-6C4E-9924-7EE68B0C7D4B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2535,7 +2535,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2574,9 +2574,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2885,12 +2882,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L1086"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+      <pane ySplit="1" topLeftCell="A1003" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1041" sqref="A1041:XFD1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2944,7 +2940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2982,7 +2978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3093,7 +3089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3128,7 +3124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -3163,7 +3159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -3198,7 +3194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -3268,7 +3264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -3303,7 +3299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -3338,7 +3334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -3373,7 +3369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -3408,7 +3404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -3443,7 +3439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -3478,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -3513,7 +3509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -3548,7 +3544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -3583,7 +3579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3618,7 +3614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -3653,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -3688,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -3723,7 +3719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3758,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3793,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3828,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3863,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3898,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3933,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -4038,7 +4034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -4073,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -4108,7 +4104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4143,7 +4139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4178,7 +4174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -4213,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -4318,7 +4314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -4353,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -4423,7 +4419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -4458,7 +4454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -4493,7 +4489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -4528,7 +4524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -4563,7 +4559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -4633,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -4668,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -4703,7 +4699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -4738,7 +4734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -4773,7 +4769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -4808,7 +4804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -4843,7 +4839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -4878,7 +4874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -4913,7 +4909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -4948,7 +4944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -4983,7 +4979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -5018,7 +5014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -5053,7 +5049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -5088,7 +5084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -5123,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -5158,7 +5154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -5193,7 +5189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -5228,7 +5224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -5263,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -5298,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -5333,7 +5329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -5368,7 +5364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -5438,7 +5434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -5508,7 +5504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -5578,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -5613,7 +5609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -5648,7 +5644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -5683,7 +5679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -5753,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -5788,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -5823,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -5858,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -5893,7 +5889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -5928,7 +5924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -6031,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -6066,7 +6062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -6101,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -6136,7 +6132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -6171,7 +6167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -6206,7 +6202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -6241,7 +6237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -6276,7 +6272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -6311,7 +6307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -6346,7 +6342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -6416,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -6451,7 +6447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -6486,7 +6482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -6521,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -6556,7 +6552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -6591,7 +6587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -6626,7 +6622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -6661,7 +6657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -6696,7 +6692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -6731,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -6766,7 +6762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -6801,7 +6797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -6836,7 +6832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -6871,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -6906,7 +6902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -6941,7 +6937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -6976,7 +6972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -7011,7 +7007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -7046,7 +7042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -7081,7 +7077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -7116,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -7186,7 +7182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -7221,7 +7217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -7256,7 +7252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -7326,7 +7322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -7361,7 +7357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -7396,7 +7392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -7431,7 +7427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -7466,7 +7462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -7501,7 +7497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -7536,7 +7532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -7571,7 +7567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -7606,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -7641,7 +7637,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -7676,7 +7672,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -7711,7 +7707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -7746,7 +7742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -7781,7 +7777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -7816,7 +7812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -7851,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -7886,7 +7882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -7921,7 +7917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -7956,7 +7952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -7991,7 +7987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -8026,7 +8022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -8061,7 +8057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -8096,7 +8092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -8131,7 +8127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -8166,7 +8162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -8201,7 +8197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -8236,7 +8232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0</v>
       </c>
@@ -8271,7 +8267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -8306,7 +8302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -8341,7 +8337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -8376,7 +8372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -8411,7 +8407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -8446,7 +8442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -8481,7 +8477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -8551,7 +8547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -8586,7 +8582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -8621,7 +8617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -8691,7 +8687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -8726,7 +8722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -8761,7 +8757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -8796,7 +8792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -8831,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -8866,7 +8862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -8901,7 +8897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -8936,7 +8932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -8971,7 +8967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -9006,7 +9002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -9041,7 +9037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -9076,7 +9072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -9111,7 +9107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -9181,7 +9177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -9216,7 +9212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -9251,7 +9247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -9286,7 +9282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -9321,7 +9317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -9391,7 +9387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -9426,7 +9422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -9461,7 +9457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0</v>
       </c>
@@ -9496,7 +9492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -9531,7 +9527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -9566,7 +9562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -9601,7 +9597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -9636,7 +9632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -9671,7 +9667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -9706,7 +9702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -9741,7 +9737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -9776,7 +9772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -9811,7 +9807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -9846,7 +9842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -9881,7 +9877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -9916,7 +9912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -9951,7 +9947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0</v>
       </c>
@@ -9986,7 +9982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -10021,7 +10017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -10056,7 +10052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -10091,7 +10087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -10126,7 +10122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -10157,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -10192,7 +10188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -10227,7 +10223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -10262,7 +10258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -10297,7 +10293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -10332,7 +10328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -10367,7 +10363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -10402,7 +10398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -10437,7 +10433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -10472,7 +10468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -10507,7 +10503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -10542,7 +10538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -10577,7 +10573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -10612,7 +10608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -10647,7 +10643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -10717,7 +10713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -10752,7 +10748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -10787,7 +10783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -10822,7 +10818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -10857,7 +10853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -10892,7 +10888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -10927,7 +10923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -10962,7 +10958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -10997,7 +10993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -11032,7 +11028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -11067,7 +11063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -11102,7 +11098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -11137,7 +11133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -11172,7 +11168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -11207,7 +11203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -11277,7 +11273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -11312,7 +11308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -11347,7 +11343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -11382,7 +11378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -11417,7 +11413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -11452,7 +11448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -11522,7 +11518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -11557,7 +11553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -11592,7 +11588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -11627,7 +11623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -11662,7 +11658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -11697,7 +11693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -11732,7 +11728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -11767,7 +11763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -11802,7 +11798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -11837,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -11872,7 +11868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -11907,7 +11903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -11942,7 +11938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -11977,7 +11973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0</v>
       </c>
@@ -12047,7 +12043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -12082,7 +12078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -12117,7 +12113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -12152,7 +12148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -12187,7 +12183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -12222,7 +12218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -12257,7 +12253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -12292,7 +12288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -12327,7 +12323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -12362,7 +12358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -12397,7 +12393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -12432,7 +12428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -12467,7 +12463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -12502,7 +12498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -12537,7 +12533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -12572,7 +12568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -12642,7 +12638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -12677,7 +12673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0</v>
       </c>
@@ -12747,7 +12743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -12782,7 +12778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -13157,7 +13153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0</v>
       </c>
@@ -13192,7 +13188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -13227,7 +13223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -13262,7 +13258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -13297,7 +13293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0</v>
       </c>
@@ -13332,7 +13328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -13367,7 +13363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -13402,7 +13398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -13437,7 +13433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -13472,7 +13468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -13507,7 +13503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -13536,7 +13532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -13565,7 +13561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -13600,7 +13596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -13635,7 +13631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -13670,7 +13666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -13705,7 +13701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0</v>
       </c>
@@ -13740,7 +13736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -13775,7 +13771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -13810,7 +13806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -13845,7 +13841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -13880,7 +13876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -13915,7 +13911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -13950,7 +13946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0</v>
       </c>
@@ -13985,7 +13981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -14020,7 +14016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0</v>
       </c>
@@ -14055,7 +14051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -14090,7 +14086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -14125,7 +14121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -14160,7 +14156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0</v>
       </c>
@@ -14195,7 +14191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0</v>
       </c>
@@ -14230,7 +14226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -14300,7 +14296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -14335,7 +14331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0</v>
       </c>
@@ -14370,7 +14366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -14405,7 +14401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -14440,7 +14436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -14475,7 +14471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -14510,7 +14506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -14545,7 +14541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -14580,7 +14576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -14615,7 +14611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -14650,7 +14646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -14685,7 +14681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -14720,7 +14716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -14755,7 +14751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -14790,7 +14786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -14825,7 +14821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -14860,7 +14856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -14895,7 +14891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0</v>
       </c>
@@ -14920,7 +14916,7 @@
       <c r="J344" s="12"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -14945,7 +14941,7 @@
       <c r="J345" s="12"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -14970,7 +14966,7 @@
       <c r="J346" s="12"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0</v>
       </c>
@@ -14995,7 +14991,7 @@
       <c r="J347" s="12"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -15020,7 +15016,7 @@
       <c r="J348" s="12"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0</v>
       </c>
@@ -15045,7 +15041,7 @@
       <c r="J349" s="12"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -15070,7 +15066,7 @@
       <c r="J350" s="12"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -15095,7 +15091,7 @@
       <c r="J351" s="12"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -15126,7 +15122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -15157,7 +15153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -15192,7 +15188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -15227,7 +15223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -15262,7 +15258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -15297,7 +15293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0</v>
       </c>
@@ -15332,7 +15328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -15367,7 +15363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -15402,7 +15398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -15437,7 +15433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -15472,7 +15468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -15507,7 +15503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -15542,7 +15538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0</v>
       </c>
@@ -15577,7 +15573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -15612,7 +15608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -15647,7 +15643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -15682,7 +15678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -15717,7 +15713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -15752,7 +15748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0</v>
       </c>
@@ -15787,7 +15783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -15822,7 +15818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -15857,7 +15853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -15892,7 +15888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -15927,7 +15923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -15962,7 +15958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -15997,7 +15993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0</v>
       </c>
@@ -16030,7 +16026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0</v>
       </c>
@@ -16063,7 +16059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -16094,7 +16090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -16125,7 +16121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -16158,7 +16154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0</v>
       </c>
@@ -16191,7 +16187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -16226,7 +16222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -16261,7 +16257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -16286,7 +16282,7 @@
       <c r="J386" s="12"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0</v>
       </c>
@@ -16311,7 +16307,7 @@
       <c r="J387" s="12"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -16342,7 +16338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -16373,7 +16369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -16398,7 +16394,7 @@
       <c r="J390" s="12"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0</v>
       </c>
@@ -16423,7 +16419,7 @@
       <c r="J391" s="12"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -16458,7 +16454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -16493,7 +16489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -16528,7 +16524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -16563,7 +16559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -16598,7 +16594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -16633,7 +16629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>0</v>
       </c>
@@ -16668,7 +16664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -16703,7 +16699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -16738,7 +16734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -16773,7 +16769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>0</v>
       </c>
@@ -16808,7 +16804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -16843,7 +16839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -16868,7 +16864,7 @@
       <c r="J404" s="12"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -16893,7 +16889,7 @@
       <c r="J405" s="12"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -16926,7 +16922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -16959,7 +16955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>0</v>
       </c>
@@ -16994,7 +16990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>0</v>
       </c>
@@ -17029,7 +17025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -17064,7 +17060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -17099,7 +17095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>0</v>
       </c>
@@ -17132,7 +17128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>0</v>
       </c>
@@ -17165,7 +17161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>0</v>
       </c>
@@ -17200,7 +17196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -17235,7 +17231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>0</v>
       </c>
@@ -17270,7 +17266,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>0</v>
       </c>
@@ -17305,7 +17301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -17340,7 +17336,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -17375,7 +17371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -17410,7 +17406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>0</v>
       </c>
@@ -17445,7 +17441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -17480,7 +17476,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -17515,7 +17511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>0</v>
       </c>
@@ -17550,7 +17546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -17585,7 +17581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>0</v>
       </c>
@@ -17620,7 +17616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -17655,7 +17651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>0</v>
       </c>
@@ -17690,7 +17686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -17725,7 +17721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -17760,7 +17756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -17795,7 +17791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -17830,7 +17826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -17865,7 +17861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>0</v>
       </c>
@@ -17900,7 +17896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>0</v>
       </c>
@@ -17935,7 +17931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>0</v>
       </c>
@@ -17970,7 +17966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>0</v>
       </c>
@@ -18005,7 +18001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>0</v>
       </c>
@@ -18040,7 +18036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -18075,7 +18071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -18110,7 +18106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>0</v>
       </c>
@@ -18145,7 +18141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -18180,7 +18176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>0</v>
       </c>
@@ -18215,7 +18211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>0</v>
       </c>
@@ -18250,7 +18246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -18285,7 +18281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>0</v>
       </c>
@@ -18320,7 +18316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -18355,7 +18351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -18390,7 +18386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>0</v>
       </c>
@@ -18425,7 +18421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>0</v>
       </c>
@@ -18460,7 +18456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -18495,7 +18491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>0</v>
       </c>
@@ -18530,7 +18526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -18565,7 +18561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>0</v>
       </c>
@@ -18600,7 +18596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>0</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -18670,7 +18666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -18705,7 +18701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -18740,7 +18736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -18775,7 +18771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -18810,7 +18806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>0</v>
       </c>
@@ -18845,7 +18841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -18880,7 +18876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>0</v>
       </c>
@@ -18915,7 +18911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -18950,7 +18946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>0</v>
       </c>
@@ -18985,7 +18981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>0</v>
       </c>
@@ -19020,7 +19016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -19055,7 +19051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -19090,7 +19086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -19125,7 +19121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -19160,7 +19156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -19195,7 +19191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>0</v>
       </c>
@@ -19230,7 +19226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>0</v>
       </c>
@@ -19265,7 +19261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>0</v>
       </c>
@@ -19300,7 +19296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>0</v>
       </c>
@@ -19335,7 +19331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>0</v>
       </c>
@@ -19370,7 +19366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>0</v>
       </c>
@@ -19405,7 +19401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>0</v>
       </c>
@@ -19440,7 +19436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>0</v>
       </c>
@@ -19475,7 +19471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -19510,7 +19506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -19545,7 +19541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -19580,7 +19576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -19615,7 +19611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>0</v>
       </c>
@@ -19650,7 +19646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -19685,7 +19681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -19720,7 +19716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>0</v>
       </c>
@@ -19755,7 +19751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -19790,7 +19786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>0</v>
       </c>
@@ -19825,7 +19821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -19860,7 +19856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>0</v>
       </c>
@@ -19895,7 +19891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -19930,7 +19926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -19965,7 +19961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -20000,7 +19996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -20035,7 +20031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>0</v>
       </c>
@@ -20070,7 +20066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>0</v>
       </c>
@@ -20105,7 +20101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -20140,7 +20136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -20175,7 +20171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -20210,7 +20206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -20245,7 +20241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -20276,7 +20272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -20307,7 +20303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>0</v>
       </c>
@@ -20342,7 +20338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -20377,7 +20373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -20412,7 +20408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>0</v>
       </c>
@@ -20447,7 +20443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -20482,7 +20478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>0</v>
       </c>
@@ -20517,7 +20513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>0</v>
       </c>
@@ -20552,7 +20548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -20587,7 +20583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>0</v>
       </c>
@@ -20618,7 +20614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -20649,7 +20645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -20682,7 +20678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -20715,7 +20711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>0</v>
       </c>
@@ -20748,7 +20744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>0</v>
       </c>
@@ -20781,7 +20777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -20816,7 +20812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -20851,7 +20847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>0</v>
       </c>
@@ -20886,7 +20882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>0</v>
       </c>
@@ -20921,7 +20917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>0</v>
       </c>
@@ -20956,7 +20952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -20991,7 +20987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -21026,7 +21022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>0</v>
       </c>
@@ -21061,7 +21057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -21096,7 +21092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -21131,7 +21127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -21166,7 +21162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>0</v>
       </c>
@@ -21201,7 +21197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>0</v>
       </c>
@@ -21236,7 +21232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -21271,7 +21267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -21306,7 +21302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>0</v>
       </c>
@@ -21341,7 +21337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -21376,7 +21372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>0</v>
       </c>
@@ -21411,7 +21407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>0</v>
       </c>
@@ -21446,7 +21442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -21481,7 +21477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -21516,7 +21512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -21551,7 +21547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>0</v>
       </c>
@@ -21586,7 +21582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>0</v>
       </c>
@@ -21621,7 +21617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -21656,7 +21652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -21691,7 +21687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -21726,7 +21722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>0</v>
       </c>
@@ -21761,7 +21757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -21796,7 +21792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -21831,7 +21827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -21866,7 +21862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>0</v>
       </c>
@@ -21901,7 +21897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -21936,7 +21932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>0</v>
       </c>
@@ -21971,7 +21967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -22006,7 +22002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -22041,7 +22037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -22076,7 +22072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>0</v>
       </c>
@@ -22111,7 +22107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>0</v>
       </c>
@@ -22146,7 +22142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -22181,7 +22177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -22216,7 +22212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>0</v>
       </c>
@@ -22251,7 +22247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>0</v>
       </c>
@@ -22286,7 +22282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>0</v>
       </c>
@@ -22317,7 +22313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -22348,7 +22344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>0</v>
       </c>
@@ -22381,7 +22377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>0</v>
       </c>
@@ -22414,7 +22410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -22447,7 +22443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>0</v>
       </c>
@@ -22480,7 +22476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -22515,7 +22511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>0</v>
       </c>
@@ -22550,7 +22546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>0</v>
       </c>
@@ -22585,7 +22581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -22620,7 +22616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -22655,7 +22651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -22690,7 +22686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -22725,7 +22721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>0</v>
       </c>
@@ -22760,7 +22756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>0</v>
       </c>
@@ -22795,7 +22791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>0</v>
       </c>
@@ -22830,7 +22826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>0</v>
       </c>
@@ -22865,7 +22861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>0</v>
       </c>
@@ -22900,7 +22896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -22935,7 +22931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>0</v>
       </c>
@@ -22970,7 +22966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>0</v>
       </c>
@@ -23005,7 +23001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -23040,7 +23036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>0</v>
       </c>
@@ -23075,7 +23071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>0</v>
       </c>
@@ -23110,7 +23106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>0</v>
       </c>
@@ -23145,7 +23141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>0</v>
       </c>
@@ -23180,7 +23176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>0</v>
       </c>
@@ -23215,7 +23211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>0</v>
       </c>
@@ -23250,7 +23246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -23285,7 +23281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -23320,7 +23316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>0</v>
       </c>
@@ -23355,7 +23351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>0</v>
       </c>
@@ -23387,7 +23383,7 @@
         <v>34838</v>
       </c>
     </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -23422,7 +23418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>0</v>
       </c>
@@ -23454,7 +23450,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -23489,7 +23485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -23521,7 +23517,7 @@
         <v>30681</v>
       </c>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>0</v>
       </c>
@@ -23556,7 +23552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -23591,7 +23587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -23626,7 +23622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -23661,7 +23657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -23694,7 +23690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>0</v>
       </c>
@@ -23727,7 +23723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -23760,7 +23756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>0</v>
       </c>
@@ -23793,7 +23789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -23826,7 +23822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>0</v>
       </c>
@@ -23859,7 +23855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -23894,7 +23890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>0</v>
       </c>
@@ -23929,7 +23925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -23964,7 +23960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>0</v>
       </c>
@@ -23999,7 +23995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -24034,7 +24030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -24069,7 +24065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -24104,7 +24100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -24139,7 +24135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>0</v>
       </c>
@@ -24174,7 +24170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -24209,7 +24205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -24244,7 +24240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>0</v>
       </c>
@@ -24279,7 +24275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>0</v>
       </c>
@@ -24314,7 +24310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>0</v>
       </c>
@@ -24349,7 +24345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -24382,7 +24378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>0</v>
       </c>
@@ -24415,7 +24411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -24450,7 +24446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>0</v>
       </c>
@@ -24485,7 +24481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>0</v>
       </c>
@@ -24520,7 +24516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -24555,7 +24551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>0</v>
       </c>
@@ -24590,7 +24586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -24625,7 +24621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>0</v>
       </c>
@@ -24660,7 +24656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -24695,7 +24691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -24730,7 +24726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>0</v>
       </c>
@@ -24765,7 +24761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -24800,7 +24796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -24835,7 +24831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>0</v>
       </c>
@@ -24870,7 +24866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -24905,7 +24901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>0</v>
       </c>
@@ -24940,7 +24936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -24975,7 +24971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -25010,7 +25006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>0</v>
       </c>
@@ -25045,7 +25041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>0</v>
       </c>
@@ -25080,7 +25076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -25115,7 +25111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -25150,7 +25146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>0</v>
       </c>
@@ -25185,7 +25181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>0</v>
       </c>
@@ -25220,7 +25216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>0</v>
       </c>
@@ -25255,7 +25251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>0</v>
       </c>
@@ -25290,7 +25286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -25325,7 +25321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -25360,7 +25356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>0</v>
       </c>
@@ -25395,7 +25391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>0</v>
       </c>
@@ -25428,7 +25424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -25461,7 +25457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -25494,7 +25490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -25527,7 +25523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>0</v>
       </c>
@@ -25560,7 +25556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>0</v>
       </c>
@@ -25593,7 +25589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -25628,7 +25624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>0</v>
       </c>
@@ -25663,7 +25659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -25698,7 +25694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -25733,7 +25729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>0</v>
       </c>
@@ -25768,7 +25764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>0</v>
       </c>
@@ -25803,7 +25799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -25838,7 +25834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>0</v>
       </c>
@@ -25873,7 +25869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>0</v>
       </c>
@@ -25908,7 +25904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>0</v>
       </c>
@@ -25943,7 +25939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>0</v>
       </c>
@@ -25978,7 +25974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>0</v>
       </c>
@@ -26013,7 +26009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>0</v>
       </c>
@@ -26048,7 +26044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>0</v>
       </c>
@@ -26083,7 +26079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -26118,7 +26114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>0</v>
       </c>
@@ -26153,7 +26149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>0</v>
       </c>
@@ -26188,7 +26184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -26223,7 +26219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -26258,7 +26254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -26293,7 +26289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>0</v>
       </c>
@@ -26328,7 +26324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -26363,7 +26359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>0</v>
       </c>
@@ -26398,7 +26394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -26433,7 +26429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -26468,7 +26464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -26503,7 +26499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -26538,7 +26534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -26573,7 +26569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -26608,7 +26604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -26643,7 +26639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -26678,7 +26674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -26713,7 +26709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -26748,7 +26744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -26783,7 +26779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -26816,7 +26812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -26849,7 +26845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -26882,7 +26878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -26915,7 +26911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -26948,7 +26944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -26981,7 +26977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -27016,7 +27012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -27051,7 +27047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -27086,7 +27082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -27121,7 +27117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="701" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -27154,7 +27150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -27187,7 +27183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -27220,7 +27216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -27253,7 +27249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -27286,7 +27282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -27319,7 +27315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -27354,7 +27350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -27389,7 +27385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -27424,7 +27420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -27459,7 +27455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -27494,7 +27490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -27529,7 +27525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -27564,7 +27560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -27599,7 +27595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -27634,7 +27630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -27669,7 +27665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -27704,7 +27700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="718" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -27739,7 +27735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -27774,7 +27770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -27809,7 +27805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -27844,7 +27840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="722" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -27879,7 +27875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -27914,7 +27910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -27949,7 +27945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -27984,7 +27980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -28019,7 +28015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="727" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -28054,7 +28050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -28089,7 +28085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="729" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -28124,7 +28120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="730" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -28159,7 +28155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -28194,7 +28190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -28229,7 +28225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -28264,7 +28260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="734" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -28299,7 +28295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="735" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -28334,7 +28330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -28369,7 +28365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -28404,7 +28400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -28439,7 +28435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -28474,7 +28470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -28509,7 +28505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="741" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -28544,7 +28540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -28579,7 +28575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -28614,7 +28610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="744" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -28649,7 +28645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -28684,7 +28680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -28719,7 +28715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>0</v>
       </c>
@@ -28754,7 +28750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>0</v>
       </c>
@@ -28789,7 +28785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="749" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -28824,7 +28820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="750" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>0</v>
       </c>
@@ -28859,7 +28855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -28894,7 +28890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>0</v>
       </c>
@@ -28929,7 +28925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="753" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -28964,7 +28960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -28999,7 +28995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -29034,7 +29030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>0</v>
       </c>
@@ -29069,7 +29065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="757" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -29104,7 +29100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -29139,7 +29135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>0</v>
       </c>
@@ -29172,7 +29168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -29205,7 +29201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="761" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>0</v>
       </c>
@@ -29238,7 +29234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="762" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>0</v>
       </c>
@@ -29271,7 +29267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="763" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -29304,7 +29300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -29337,7 +29333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -29372,7 +29368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>0</v>
       </c>
@@ -29407,7 +29403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -29442,7 +29438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -29477,7 +29473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="769" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>0</v>
       </c>
@@ -29510,7 +29506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="770" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>0</v>
       </c>
@@ -29543,7 +29539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -29576,7 +29572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -29609,7 +29605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>0</v>
       </c>
@@ -29642,7 +29638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -29677,7 +29673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -29712,7 +29708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>0</v>
       </c>
@@ -29747,7 +29743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>0</v>
       </c>
@@ -29782,7 +29778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -29815,7 +29811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="779" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -29848,7 +29844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>0</v>
       </c>
@@ -29881,7 +29877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -29914,7 +29910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="782" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -29947,7 +29943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>0</v>
       </c>
@@ -29980,7 +29976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -30015,7 +30011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="785" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>0</v>
       </c>
@@ -30050,7 +30046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>0</v>
       </c>
@@ -30085,7 +30081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -30120,7 +30116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -30155,7 +30151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -30190,7 +30186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>0</v>
       </c>
@@ -30225,7 +30221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="791" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>0</v>
       </c>
@@ -30260,7 +30256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>0</v>
       </c>
@@ -30295,7 +30291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -30330,7 +30326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>0</v>
       </c>
@@ -30365,7 +30361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="795" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>0</v>
       </c>
@@ -30400,7 +30396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -30435,7 +30431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="797" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>0</v>
       </c>
@@ -30470,7 +30466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>1</v>
       </c>
@@ -30501,7 +30497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>1</v>
       </c>
@@ -30532,7 +30528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>1</v>
       </c>
@@ -30563,7 +30559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="801" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>1</v>
       </c>
@@ -30594,7 +30590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>1</v>
       </c>
@@ -30627,7 +30623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>1</v>
       </c>
@@ -30660,7 +30656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>1</v>
       </c>
@@ -30695,7 +30691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>1</v>
       </c>
@@ -30730,7 +30726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>1</v>
       </c>
@@ -30765,7 +30761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>1</v>
       </c>
@@ -30800,7 +30796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="808" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -30831,7 +30827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="809" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -30862,7 +30858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="810" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>0</v>
       </c>
@@ -30895,7 +30891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="811" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>0</v>
       </c>
@@ -30928,7 +30924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -30961,7 +30957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="813" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -30994,7 +30990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="814" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -31029,7 +31025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -31064,7 +31060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="816" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>0</v>
       </c>
@@ -31099,7 +31095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="817" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>0</v>
       </c>
@@ -31134,7 +31130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="818" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>0</v>
       </c>
@@ -31167,7 +31163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>0</v>
       </c>
@@ -31200,7 +31196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>0</v>
       </c>
@@ -31233,7 +31229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="821" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -31266,7 +31262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -31295,7 +31291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="823" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>0</v>
       </c>
@@ -31324,7 +31320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -31359,7 +31355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -31394,7 +31390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="826" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>0</v>
       </c>
@@ -31429,7 +31425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="827" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>0</v>
       </c>
@@ -31464,7 +31460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="828" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -31499,7 +31495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -31534,7 +31530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -31569,7 +31565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="831" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>0</v>
       </c>
@@ -31604,7 +31600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="832" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -31639,7 +31635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="833" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>0</v>
       </c>
@@ -31674,7 +31670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -31709,7 +31705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>0</v>
       </c>
@@ -31744,7 +31740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -31779,7 +31775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -31814,7 +31810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="838" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>0</v>
       </c>
@@ -31849,7 +31845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="839" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>0</v>
       </c>
@@ -31884,7 +31880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -31919,7 +31915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>0</v>
       </c>
@@ -31954,7 +31950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="842" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>0</v>
       </c>
@@ -31989,7 +31985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="843" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -32024,7 +32020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="844" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>0</v>
       </c>
@@ -32059,7 +32055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="845" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -32094,7 +32090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -32129,7 +32125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="847" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -32164,7 +32160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>0</v>
       </c>
@@ -32189,7 +32185,7 @@
       <c r="J848" s="12"/>
       <c r="K848" s="2"/>
     </row>
-    <row r="849" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>0</v>
       </c>
@@ -32214,7 +32210,7 @@
       <c r="J849" s="12"/>
       <c r="K849" s="2"/>
     </row>
-    <row r="850" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>0</v>
       </c>
@@ -32245,7 +32241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>0</v>
       </c>
@@ -32270,7 +32266,7 @@
       <c r="J851" s="12"/>
       <c r="K851" s="2"/>
     </row>
-    <row r="852" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -32295,7 +32291,7 @@
       <c r="J852" s="12"/>
       <c r="K852" s="2"/>
     </row>
-    <row r="853" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -32330,7 +32326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="854" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>0</v>
       </c>
@@ -32365,7 +32361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>0</v>
       </c>
@@ -32400,7 +32396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -32435,7 +32431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>0</v>
       </c>
@@ -32464,7 +32460,7 @@
       </c>
       <c r="K857" s="2"/>
     </row>
-    <row r="858" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -32493,7 +32489,7 @@
       </c>
       <c r="K858" s="2"/>
     </row>
-    <row r="859" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>0</v>
       </c>
@@ -32522,7 +32518,7 @@
       </c>
       <c r="K859" s="2"/>
     </row>
-    <row r="860" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>0</v>
       </c>
@@ -32551,7 +32547,7 @@
       </c>
       <c r="K860" s="2"/>
     </row>
-    <row r="861" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>0</v>
       </c>
@@ -32586,7 +32582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="862" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -32621,7 +32617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="863" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>0</v>
       </c>
@@ -32656,7 +32652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="864" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>0</v>
       </c>
@@ -32691,7 +32687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="865" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -32726,7 +32722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="866" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -32761,7 +32757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>0</v>
       </c>
@@ -32792,7 +32788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -32823,7 +32819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -32858,7 +32854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -32893,7 +32889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="871" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -32928,7 +32924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>0</v>
       </c>
@@ -32963,7 +32959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>0</v>
       </c>
@@ -32998,7 +32994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>0</v>
       </c>
@@ -33033,7 +33029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="875" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -33068,7 +33064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>0</v>
       </c>
@@ -33103,7 +33099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>0</v>
       </c>
@@ -33128,7 +33124,7 @@
       <c r="J877" s="12"/>
       <c r="K877" s="2"/>
     </row>
-    <row r="878" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>0</v>
       </c>
@@ -33153,7 +33149,7 @@
       <c r="J878" s="12"/>
       <c r="K878" s="2"/>
     </row>
-    <row r="879" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -33178,7 +33174,7 @@
       <c r="J879" s="12"/>
       <c r="K879" s="2"/>
     </row>
-    <row r="880" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -33203,7 +33199,7 @@
       <c r="J880" s="12"/>
       <c r="K880" s="2"/>
     </row>
-    <row r="881" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -33234,7 +33230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -33269,7 +33265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="883" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>0</v>
       </c>
@@ -33304,7 +33300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>0</v>
       </c>
@@ -33339,7 +33335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>0</v>
       </c>
@@ -33374,7 +33370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>0</v>
       </c>
@@ -33409,7 +33405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="887" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>0</v>
       </c>
@@ -33444,7 +33440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="888" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>0</v>
       </c>
@@ -33479,7 +33475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="889" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>0</v>
       </c>
@@ -33514,7 +33510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -33549,7 +33545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>0</v>
       </c>
@@ -33584,7 +33580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -33619,7 +33615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>0</v>
       </c>
@@ -33650,7 +33646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="894" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>0</v>
       </c>
@@ -33681,7 +33677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="895" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>0</v>
       </c>
@@ -33712,7 +33708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="896" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>0</v>
       </c>
@@ -33743,7 +33739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="897" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>0</v>
       </c>
@@ -33774,7 +33770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="898" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>0</v>
       </c>
@@ -33805,7 +33801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="899" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -33840,7 +33836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="900" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>0</v>
       </c>
@@ -33875,7 +33871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="901" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>0</v>
       </c>
@@ -33910,7 +33906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="902" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>0</v>
       </c>
@@ -33945,7 +33941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="903" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -33980,7 +33976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>0</v>
       </c>
@@ -34015,7 +34011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -34050,7 +34046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="906" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -34085,7 +34081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="907" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>0</v>
       </c>
@@ -34120,7 +34116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="908" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>0</v>
       </c>
@@ -34155,7 +34151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="909" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>0</v>
       </c>
@@ -34190,7 +34186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="910" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>0</v>
       </c>
@@ -34225,7 +34221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="911" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -34260,7 +34256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="912" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -34295,7 +34291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="913" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>0</v>
       </c>
@@ -34330,7 +34326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>0</v>
       </c>
@@ -34365,7 +34361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="915" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -34400,7 +34396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="916" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -34435,7 +34431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="917" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>0</v>
       </c>
@@ -34470,7 +34466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="918" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>0</v>
       </c>
@@ -34505,7 +34501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="919" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>0</v>
       </c>
@@ -34540,7 +34536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>0</v>
       </c>
@@ -34575,7 +34571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>0</v>
       </c>
@@ -34610,7 +34606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>0</v>
       </c>
@@ -34645,7 +34641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="923" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -34680,7 +34676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="924" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>0</v>
       </c>
@@ -34715,7 +34711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="925" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>0</v>
       </c>
@@ -34750,7 +34746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="926" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -34785,7 +34781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="927" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -34820,7 +34816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="928" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -34855,7 +34851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="929" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>0</v>
       </c>
@@ -34890,7 +34886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="930" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -34925,7 +34921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="931" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>0</v>
       </c>
@@ -34960,7 +34956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="932" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>0</v>
       </c>
@@ -34995,7 +34991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="933" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -35030,7 +35026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="934" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>0</v>
       </c>
@@ -35065,7 +35061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="935" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -35100,7 +35096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="936" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>0</v>
       </c>
@@ -35135,7 +35131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="937" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -35170,7 +35166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="938" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>0</v>
       </c>
@@ -35205,7 +35201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="939" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -35240,7 +35236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="940" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>0</v>
       </c>
@@ -35275,7 +35271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="941" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>0</v>
       </c>
@@ -35310,7 +35306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="942" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -35345,7 +35341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>0</v>
       </c>
@@ -35380,7 +35376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="944" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -35415,7 +35411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="945" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -35450,7 +35446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="946" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -35485,7 +35481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="947" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -35520,7 +35516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="948" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>0</v>
       </c>
@@ -35555,7 +35551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="949" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>0</v>
       </c>
@@ -35590,7 +35586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="950" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>0</v>
       </c>
@@ -35625,7 +35621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="951" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>0</v>
       </c>
@@ -35660,7 +35656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>0</v>
       </c>
@@ -35695,7 +35691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -35730,7 +35726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="954" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -35765,7 +35761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="955" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>0</v>
       </c>
@@ -35800,7 +35796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -35835,7 +35831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="957" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>0</v>
       </c>
@@ -35870,7 +35866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="958" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -35905,7 +35901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="959" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>0</v>
       </c>
@@ -35940,7 +35936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="960" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -35975,7 +35971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="961" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>0</v>
       </c>
@@ -36008,7 +36004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>0</v>
       </c>
@@ -36043,7 +36039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="963" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -36078,7 +36074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="964" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -36113,7 +36109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="965" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -36148,7 +36144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="966" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>0</v>
       </c>
@@ -36183,7 +36179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>0</v>
       </c>
@@ -36218,7 +36214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="968" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>0</v>
       </c>
@@ -36253,7 +36249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="969" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>0</v>
       </c>
@@ -36288,7 +36284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="970" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>0</v>
       </c>
@@ -36323,7 +36319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="971" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>0</v>
       </c>
@@ -36358,7 +36354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="972" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>0</v>
       </c>
@@ -36393,7 +36389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>0</v>
       </c>
@@ -36428,7 +36424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>0</v>
       </c>
@@ -36459,7 +36455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>0</v>
       </c>
@@ -36494,7 +36490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="976" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>0</v>
       </c>
@@ -36529,7 +36525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="977" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>0</v>
       </c>
@@ -36564,7 +36560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="978" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>0</v>
       </c>
@@ -36599,7 +36595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="979" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>0</v>
       </c>
@@ -36634,7 +36630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="980" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>0</v>
       </c>
@@ -36669,7 +36665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="981" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -36704,7 +36700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="982" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>0</v>
       </c>
@@ -36739,7 +36735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="983" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>0</v>
       </c>
@@ -36774,7 +36770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="984" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>0</v>
       </c>
@@ -36809,7 +36805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="985" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -36844,7 +36840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="986" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>0</v>
       </c>
@@ -36879,7 +36875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="987" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>0</v>
       </c>
@@ -36914,7 +36910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="988" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>0</v>
       </c>
@@ -36949,7 +36945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="989" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>0</v>
       </c>
@@ -36984,7 +36980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="990" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -37019,7 +37015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="991" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>0</v>
       </c>
@@ -37054,7 +37050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="992" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -37089,7 +37085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="993" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -37124,7 +37120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="994" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -37159,7 +37155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="995" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>0</v>
       </c>
@@ -37194,7 +37190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="996" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>0</v>
       </c>
@@ -37229,7 +37225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="997" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>0</v>
       </c>
@@ -37264,7 +37260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="998" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>0</v>
       </c>
@@ -37299,7 +37295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="999" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>0</v>
       </c>
@@ -37334,7 +37330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>0</v>
       </c>
@@ -37369,7 +37365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>0</v>
       </c>
@@ -37404,7 +37400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>0</v>
       </c>
@@ -37439,7 +37435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>0</v>
       </c>
@@ -37474,7 +37470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -37509,7 +37505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>0</v>
       </c>
@@ -37542,7 +37538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>0</v>
       </c>
@@ -37577,7 +37573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>0</v>
       </c>
@@ -37612,7 +37608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>0</v>
       </c>
@@ -37647,7 +37643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>0</v>
       </c>
@@ -37682,7 +37678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>0</v>
       </c>
@@ -37713,7 +37709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>0</v>
       </c>
@@ -37748,7 +37744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
         <v>0</v>
       </c>
@@ -37783,7 +37779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
         <v>0</v>
       </c>
@@ -37816,7 +37812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
         <v>0</v>
       </c>
@@ -37851,7 +37847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
         <v>0</v>
       </c>
@@ -37886,7 +37882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1016" s="1">
         <v>0</v>
       </c>
@@ -37917,7 +37913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
         <v>0</v>
       </c>
@@ -37952,7 +37948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
         <v>0</v>
       </c>
@@ -37987,7 +37983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
         <v>0</v>
       </c>
@@ -38022,7 +38018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
         <v>0</v>
       </c>
@@ -38057,7 +38053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
         <v>0</v>
       </c>
@@ -38092,7 +38088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
         <v>0</v>
       </c>
@@ -38127,7 +38123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
         <v>0</v>
       </c>
@@ -38162,7 +38158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1024" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
         <v>0</v>
       </c>
@@ -38197,7 +38193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
         <v>0</v>
       </c>
@@ -38222,8 +38218,8 @@
       <c r="H1025" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="I1025" s="16">
-        <v>14475</v>
+      <c r="I1025">
+        <v>7813</v>
       </c>
       <c r="J1025" s="11">
         <v>15122</v>
@@ -38232,7 +38228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
         <v>0</v>
       </c>
@@ -38257,8 +38253,8 @@
       <c r="H1026" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="I1026" s="16">
-        <v>14475</v>
+      <c r="I1026">
+        <v>6662</v>
       </c>
       <c r="J1026" s="11">
         <v>15122</v>
@@ -38267,7 +38263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1027" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
         <v>0</v>
       </c>
@@ -38302,7 +38298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1028" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
         <v>0</v>
       </c>
@@ -38337,7 +38333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
         <v>0</v>
       </c>
@@ -38372,7 +38368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
         <v>0</v>
       </c>
@@ -38407,7 +38403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
         <v>0</v>
       </c>
@@ -38442,7 +38438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
         <v>0</v>
       </c>
@@ -38477,7 +38473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1033" s="1">
         <v>0</v>
       </c>
@@ -38512,7 +38508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
         <v>0</v>
       </c>
@@ -38547,7 +38543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1035" s="1">
         <v>0</v>
       </c>
@@ -38582,7 +38578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1036" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -38617,7 +38613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1037" s="1">
         <v>0</v>
       </c>
@@ -38652,7 +38648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1038" s="1">
         <v>0</v>
       </c>
@@ -38687,7 +38683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1039" s="1">
         <v>0</v>
       </c>
@@ -38722,7 +38718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1040" s="1">
         <v>0</v>
       </c>
@@ -38757,7 +38753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1041" s="1">
         <v>0</v>
       </c>
@@ -38792,7 +38788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1042" s="1">
         <v>0</v>
       </c>
@@ -38827,7 +38823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1043" s="1">
         <v>0</v>
       </c>
@@ -38862,7 +38858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1044" s="1">
         <v>0</v>
       </c>
@@ -38897,7 +38893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1045" s="1">
         <v>0</v>
       </c>
@@ -38932,7 +38928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1046" s="1">
         <v>0</v>
       </c>
@@ -38967,7 +38963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1047" s="1">
         <v>0</v>
       </c>
@@ -39002,7 +38998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1048" s="1">
         <v>0</v>
       </c>
@@ -39037,7 +39033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1049" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1049" s="1">
         <v>0</v>
       </c>
@@ -39072,7 +39068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1050" s="1">
         <v>0</v>
       </c>
@@ -39107,7 +39103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -39142,7 +39138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1052" s="1">
         <v>0</v>
       </c>
@@ -39177,7 +39173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1053" s="1">
         <v>0</v>
       </c>
@@ -39212,7 +39208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1054" s="1">
         <v>0</v>
       </c>
@@ -39247,7 +39243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1055" s="1">
         <v>0</v>
       </c>
@@ -39282,7 +39278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1056" s="1">
         <v>0</v>
       </c>
@@ -39317,7 +39313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1057" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1057" s="1">
         <v>0</v>
       </c>
@@ -39352,7 +39348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1058" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1058" s="1">
         <v>0</v>
       </c>
@@ -39387,7 +39383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1059" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1059" s="1">
         <v>0</v>
       </c>
@@ -39422,7 +39418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1060" s="1">
         <v>0</v>
       </c>
@@ -39457,7 +39453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1061" s="1">
         <v>0</v>
       </c>
@@ -39492,7 +39488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1062" s="1">
         <v>0</v>
       </c>
@@ -39527,7 +39523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1063" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1063" s="1">
         <v>0</v>
       </c>
@@ -39562,7 +39558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1064" s="1">
         <v>0</v>
       </c>
@@ -39597,7 +39593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1065" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1065" s="1">
         <v>0</v>
       </c>
@@ -39632,7 +39628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1066" s="1">
         <v>0</v>
       </c>
@@ -39667,7 +39663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1067" s="1">
         <v>0</v>
       </c>
@@ -39702,7 +39698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1068" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1068" s="1">
         <v>0</v>
       </c>
@@ -39737,7 +39733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1069" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1069" s="1">
         <v>0</v>
       </c>
@@ -39772,7 +39768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1070" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1070" s="1">
         <v>0</v>
       </c>
@@ -39807,7 +39803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1071" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1071" s="1">
         <v>0</v>
       </c>
@@ -39842,7 +39838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1072" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1072" s="1">
         <v>0</v>
       </c>
@@ -39877,7 +39873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1073" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1073" s="1">
         <v>0</v>
       </c>
@@ -39912,7 +39908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1074" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1074" s="1">
         <v>0</v>
       </c>
@@ -39947,7 +39943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1075" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1075" s="1">
         <v>0</v>
       </c>
@@ -39982,7 +39978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1076" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1076" s="1">
         <v>0</v>
       </c>
@@ -40017,7 +40013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1077" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1077" s="1">
         <v>0</v>
       </c>
@@ -40048,7 +40044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1078" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1078" s="1">
         <v>0</v>
       </c>
@@ -40079,7 +40075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1079" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1079" s="1">
         <v>0</v>
       </c>
@@ -40110,7 +40106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1080" s="1">
         <v>0</v>
       </c>
@@ -40141,7 +40137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1081" s="1">
         <v>0</v>
       </c>
@@ -40172,7 +40168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1082" s="1">
         <v>0</v>
       </c>
@@ -40203,7 +40199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1083" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1083" s="1">
         <v>0</v>
       </c>
@@ -40234,7 +40230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1084" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1084" s="1">
         <v>0</v>
       </c>
@@ -40265,7 +40261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1085" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1085" s="1">
         <v>0</v>
       </c>
@@ -40296,7 +40292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1086" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1086" s="1">
         <v>0</v>
       </c>
@@ -40328,13 +40324,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1086" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Chilliwack"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L1086" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1095">
     <sortCondition ref="C2:C1095"/>
   </sortState>

--- a/Data/working_data_file.xlsx
+++ b/Data/working_data_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/skiss_wlu_ca/Documents/projects_folder/News_deserts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10415" documentId="8_{2FC82F62-ABEE-B542-B012-2CF671290486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ED76731-B79E-6C4E-9924-7EE68B0C7D4B}"/>
+  <xr:revisionPtr revIDLastSave="10501" documentId="8_{2FC82F62-ABEE-B542-B012-2CF671290486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B876CC-544C-4F49-91F6-A5348EDE266E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="810">
   <si>
     <t xml:space="preserve">newspaper desert </t>
   </si>
@@ -2459,6 +2459,15 @@
   </si>
   <si>
     <t>Saint-Jean</t>
+  </si>
+  <si>
+    <t>daily_paid_paper_closure</t>
+  </si>
+  <si>
+    <t>daily_free_paper_closure</t>
+  </si>
+  <si>
+    <t>weekly_paper_closure</t>
   </si>
 </sst>
 </file>
@@ -2882,14 +2891,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1086"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N1086"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1003" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1041" sqref="A1041:XFD1042"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
@@ -2902,10 +2912,12 @@
     <col min="9" max="9" width="27" style="11" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="11" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="31.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="23.5" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2939,8 +2951,17 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>807</v>
+      </c>
+      <c r="M1" t="s">
+        <v>808</v>
+      </c>
+      <c r="N1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2978,7 +2999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -3054,7 +3075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3089,7 +3110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3124,7 +3145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -3159,7 +3180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -3194,7 +3215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -3229,7 +3250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -3264,7 +3285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -3299,7 +3320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -3334,7 +3355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -3369,7 +3390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -3404,7 +3425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -3439,7 +3460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -3474,7 +3495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -3509,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -3544,7 +3565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -3579,7 +3600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -3614,7 +3635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -3649,7 +3670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -3719,7 +3740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -3754,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -3789,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -3824,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -3859,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -3894,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3929,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -3964,7 +3985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -3999,7 +4020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -4034,7 +4055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -4069,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -4104,7 +4125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4139,7 +4160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -4174,7 +4195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -4209,7 +4230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -4244,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -4279,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -4314,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -4349,7 +4370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -4384,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -4419,7 +4440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -4454,7 +4475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -4489,7 +4510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -4524,7 +4545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -4559,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -4594,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -4629,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -4664,7 +4685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -4699,7 +4720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -4734,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -4769,7 +4790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -4804,7 +4825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -4839,7 +4860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -4874,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -4909,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -4944,7 +4965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -4979,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -5014,7 +5035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -5049,7 +5070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -5084,7 +5105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -5119,7 +5140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -5154,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -5189,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -5224,7 +5245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -5259,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -5294,7 +5315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -5329,7 +5350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -5364,7 +5385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -5399,7 +5420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -5434,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -5469,7 +5490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -5504,7 +5525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -5539,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -5574,7 +5595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -5609,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -5644,7 +5665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -5679,7 +5700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -5714,7 +5735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -5749,7 +5770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -5784,7 +5805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -5819,7 +5840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -5854,7 +5875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -5889,7 +5910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -5924,7 +5945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -5959,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -5992,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -6027,7 +6048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -6062,7 +6083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -6097,7 +6118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -6132,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -6167,7 +6188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -6202,7 +6223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -6237,7 +6258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -6272,7 +6293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -6307,7 +6328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -6342,7 +6363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1</v>
       </c>
@@ -6377,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -6412,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -6447,7 +6468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -6482,7 +6503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -6517,7 +6538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -6552,7 +6573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -6587,7 +6608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -6622,7 +6643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -6657,7 +6678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -6692,7 +6713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -6727,7 +6748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -6762,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -6797,7 +6818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -6832,7 +6853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -6867,7 +6888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -6902,7 +6923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -6937,7 +6958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -6972,7 +6993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -7007,7 +7028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -7042,7 +7063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -7077,7 +7098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -7112,7 +7133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -7147,7 +7168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -7182,7 +7203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -7217,7 +7238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -7252,7 +7273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -7287,7 +7308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -7322,7 +7343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -7357,7 +7378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -7392,7 +7413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -7427,7 +7448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -7462,7 +7483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -7497,7 +7518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -7532,7 +7553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -7567,7 +7588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -7602,7 +7623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -7637,7 +7658,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -7672,7 +7693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -7707,7 +7728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -7742,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -7777,7 +7798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -7812,7 +7833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -7847,7 +7868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -7882,7 +7903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -7917,7 +7938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -7952,7 +7973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -7987,7 +8008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -8022,7 +8043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -8057,7 +8078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -8092,7 +8113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -8127,7 +8148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -8162,7 +8183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -8197,7 +8218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -8232,7 +8253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0</v>
       </c>
@@ -8267,7 +8288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -8302,7 +8323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -8337,7 +8358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -8372,7 +8393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -8407,7 +8428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -8442,7 +8463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -8477,7 +8498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -8512,7 +8533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -8547,7 +8568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -8582,7 +8603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -8617,7 +8638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -8652,7 +8673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -8687,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -8722,7 +8743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -8757,7 +8778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -8792,7 +8813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -8827,7 +8848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -8862,7 +8883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -8897,7 +8918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -8932,7 +8953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -8967,7 +8988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -9002,7 +9023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -9037,7 +9058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -9072,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -9107,7 +9128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>0</v>
       </c>
@@ -9142,7 +9163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -9177,7 +9198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -9212,7 +9233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -9247,7 +9268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -9282,7 +9303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -9317,7 +9338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -9352,7 +9373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -9387,7 +9408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -9422,7 +9443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -9457,7 +9478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>0</v>
       </c>
@@ -9492,7 +9513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -9527,7 +9548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -9562,7 +9583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -9597,7 +9618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -9632,7 +9653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -9667,7 +9688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -9702,7 +9723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -9737,7 +9758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -9772,7 +9793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -9807,7 +9828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -9842,7 +9863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -9877,7 +9898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -9912,7 +9933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -9947,7 +9968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0</v>
       </c>
@@ -9982,7 +10003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -10017,7 +10038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -10052,7 +10073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -10087,7 +10108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -10122,7 +10143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -10153,7 +10174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -10188,7 +10209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -10223,7 +10244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -10258,7 +10279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -10293,7 +10314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -10328,7 +10349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -10363,7 +10384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -10398,7 +10419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -10433,7 +10454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -10468,7 +10489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -10503,7 +10524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -10538,7 +10559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -10573,7 +10594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -10608,7 +10629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -10643,7 +10664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -10678,7 +10699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -10713,7 +10734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -10748,7 +10769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -10783,7 +10804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -10818,7 +10839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -10853,7 +10874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -10888,7 +10909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -10923,7 +10944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -10958,7 +10979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -10993,7 +11014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -11028,7 +11049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -11063,7 +11084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -11098,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -11133,7 +11154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -11168,7 +11189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -11203,7 +11224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -11238,7 +11259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -11273,7 +11294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -11308,7 +11329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -11343,7 +11364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -11378,7 +11399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -11413,7 +11434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -11448,7 +11469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -11483,7 +11504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -11518,7 +11539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -11553,7 +11574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -11588,7 +11609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -11623,7 +11644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -11658,7 +11679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -11693,7 +11714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -11728,7 +11749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -11763,7 +11784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -11798,7 +11819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -11833,7 +11854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -11868,7 +11889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -11903,7 +11924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -11938,7 +11959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -11973,7 +11994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -12008,7 +12029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>0</v>
       </c>
@@ -12043,7 +12064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -12078,7 +12099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -12113,7 +12134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -12148,7 +12169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -12183,7 +12204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -12218,7 +12239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -12253,7 +12274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -12288,7 +12309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -12323,7 +12344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -12358,7 +12379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -12393,7 +12414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -12428,7 +12449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -12463,7 +12484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -12498,7 +12519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -12533,7 +12554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -12568,7 +12589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -12603,7 +12624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -12638,7 +12659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -12673,7 +12694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -12708,7 +12729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>0</v>
       </c>
@@ -12743,7 +12764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -12778,7 +12799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -12813,7 +12834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -12844,7 +12865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -12875,7 +12896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -12908,7 +12929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -12943,7 +12964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -12978,7 +12999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -13013,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -13048,7 +13069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -13083,7 +13104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -13118,7 +13139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -13153,7 +13174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>0</v>
       </c>
@@ -13188,7 +13209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -13223,7 +13244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -13258,7 +13279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -13293,7 +13314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0</v>
       </c>
@@ -13328,7 +13349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -13363,7 +13384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -13398,7 +13419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -13433,7 +13454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -13468,7 +13489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -13503,7 +13524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -13532,7 +13553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -13561,7 +13582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -13596,7 +13617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -13631,7 +13652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -13666,7 +13687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -13701,7 +13722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0</v>
       </c>
@@ -13736,7 +13757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -13771,7 +13792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -13806,7 +13827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -13841,7 +13862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -13876,7 +13897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -13911,7 +13932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -13946,7 +13967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>0</v>
       </c>
@@ -13981,7 +14002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -14016,7 +14037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>0</v>
       </c>
@@ -14051,7 +14072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -14086,7 +14107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -14121,7 +14142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -14156,7 +14177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>0</v>
       </c>
@@ -14191,7 +14212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>0</v>
       </c>
@@ -14226,7 +14247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>0</v>
       </c>
@@ -14261,7 +14282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -14296,7 +14317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -14331,7 +14352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>0</v>
       </c>
@@ -14366,7 +14387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -14401,7 +14422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -14436,7 +14457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -14471,7 +14492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -14506,7 +14527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -14541,7 +14562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -14576,7 +14597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -14611,7 +14632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -14646,7 +14667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -14681,7 +14702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -14716,7 +14737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -14751,7 +14772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -14786,7 +14807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -14821,7 +14842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -14856,7 +14877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -14891,7 +14912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0</v>
       </c>
@@ -14916,7 +14937,7 @@
       <c r="J344" s="12"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -14941,7 +14962,7 @@
       <c r="J345" s="12"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -14966,7 +14987,7 @@
       <c r="J346" s="12"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0</v>
       </c>
@@ -14991,7 +15012,7 @@
       <c r="J347" s="12"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -15016,7 +15037,7 @@
       <c r="J348" s="12"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0</v>
       </c>
@@ -15041,7 +15062,7 @@
       <c r="J349" s="12"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -15066,7 +15087,7 @@
       <c r="J350" s="12"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -15091,7 +15112,7 @@
       <c r="J351" s="12"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -15122,7 +15143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -15153,7 +15174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -15188,7 +15209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -15223,7 +15244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -15258,7 +15279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -15293,7 +15314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0</v>
       </c>
@@ -15328,7 +15349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -15363,7 +15384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -15398,7 +15419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -15433,7 +15454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -15468,7 +15489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -15503,7 +15524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -15538,7 +15559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>0</v>
       </c>
@@ -15573,7 +15594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -15608,7 +15629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -15643,7 +15664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -15678,7 +15699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -15713,7 +15734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -15748,7 +15769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0</v>
       </c>
@@ -15783,7 +15804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -15818,7 +15839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -15853,7 +15874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -15888,7 +15909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -15923,7 +15944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -15958,7 +15979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -15993,7 +16014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0</v>
       </c>
@@ -16026,7 +16047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0</v>
       </c>
@@ -16059,7 +16080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -16090,7 +16111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -16121,7 +16142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -16154,7 +16175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0</v>
       </c>
@@ -16187,7 +16208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -16222,7 +16243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -16257,7 +16278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -16282,7 +16303,7 @@
       <c r="J386" s="12"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0</v>
       </c>
@@ -16307,7 +16328,7 @@
       <c r="J387" s="12"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -16338,7 +16359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -16369,7 +16390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -16394,7 +16415,7 @@
       <c r="J390" s="12"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0</v>
       </c>
@@ -16419,7 +16440,7 @@
       <c r="J391" s="12"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -16454,7 +16475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -16489,7 +16510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -16524,7 +16545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -16559,7 +16580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -16594,7 +16615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -16629,7 +16650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>0</v>
       </c>
@@ -16664,7 +16685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -16699,7 +16720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -16734,7 +16755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -16769,7 +16790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>0</v>
       </c>
@@ -16804,7 +16825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -16839,7 +16860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -16864,7 +16885,7 @@
       <c r="J404" s="12"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -16889,7 +16910,7 @@
       <c r="J405" s="12"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -16922,7 +16943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -16955,7 +16976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>0</v>
       </c>
@@ -16990,7 +17011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>0</v>
       </c>
@@ -17025,7 +17046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -17060,7 +17081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -17095,7 +17116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>0</v>
       </c>
@@ -17128,7 +17149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>0</v>
       </c>
@@ -17161,7 +17182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>0</v>
       </c>
@@ -17196,7 +17217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -17231,7 +17252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>0</v>
       </c>
@@ -17266,7 +17287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>0</v>
       </c>
@@ -17301,7 +17322,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -17336,7 +17357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -17371,7 +17392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -17406,7 +17427,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>0</v>
       </c>
@@ -17441,7 +17462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -17476,7 +17497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -17511,7 +17532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>0</v>
       </c>
@@ -17546,7 +17567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -17581,7 +17602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>0</v>
       </c>
@@ -17616,7 +17637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -17651,7 +17672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>0</v>
       </c>
@@ -17686,7 +17707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -17721,7 +17742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -17756,7 +17777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -17791,7 +17812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -17826,7 +17847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -17861,7 +17882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>0</v>
       </c>
@@ -17896,7 +17917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>0</v>
       </c>
@@ -17931,7 +17952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>0</v>
       </c>
@@ -17966,7 +17987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>0</v>
       </c>
@@ -18001,7 +18022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>0</v>
       </c>
@@ -18036,7 +18057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -18071,7 +18092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -18106,7 +18127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>0</v>
       </c>
@@ -18141,7 +18162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -18176,7 +18197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>0</v>
       </c>
@@ -18211,7 +18232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>0</v>
       </c>
@@ -18246,7 +18267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -18281,7 +18302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>0</v>
       </c>
@@ -18316,7 +18337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -18351,7 +18372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -18386,7 +18407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>0</v>
       </c>
@@ -18421,7 +18442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>0</v>
       </c>
@@ -18456,7 +18477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -18491,7 +18512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>0</v>
       </c>
@@ -18526,7 +18547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -18561,7 +18582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>0</v>
       </c>
@@ -18596,7 +18617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>0</v>
       </c>
@@ -18631,7 +18652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -18666,7 +18687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -18701,7 +18722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -18736,7 +18757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -18771,7 +18792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -18806,7 +18827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>0</v>
       </c>
@@ -18841,7 +18862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -18876,7 +18897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>0</v>
       </c>
@@ -18911,7 +18932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -18946,7 +18967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>0</v>
       </c>
@@ -18981,7 +19002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>0</v>
       </c>
@@ -19016,7 +19037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -19051,7 +19072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -19086,7 +19107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -19121,7 +19142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -19156,7 +19177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -19191,7 +19212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>0</v>
       </c>
@@ -19226,7 +19247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>0</v>
       </c>
@@ -19261,7 +19282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>0</v>
       </c>
@@ -19296,7 +19317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>0</v>
       </c>
@@ -19331,7 +19352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>0</v>
       </c>
@@ -19366,7 +19387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>0</v>
       </c>
@@ -19401,7 +19422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>0</v>
       </c>
@@ -19436,7 +19457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>0</v>
       </c>
@@ -19471,7 +19492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -19506,7 +19527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -19541,7 +19562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -19576,7 +19597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -19611,7 +19632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>0</v>
       </c>
@@ -19646,7 +19667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -19681,7 +19702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -19716,7 +19737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>0</v>
       </c>
@@ -19751,7 +19772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -19786,7 +19807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>0</v>
       </c>
@@ -19821,7 +19842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -19856,7 +19877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>0</v>
       </c>
@@ -19891,7 +19912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -19926,7 +19947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -19961,7 +19982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -19996,7 +20017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -20031,7 +20052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>0</v>
       </c>
@@ -20066,7 +20087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>0</v>
       </c>
@@ -20101,7 +20122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -20136,7 +20157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -20171,7 +20192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -20206,7 +20227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -20241,7 +20262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -20272,7 +20293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -20303,7 +20324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>0</v>
       </c>
@@ -20338,7 +20359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -20373,7 +20394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -20408,7 +20429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>0</v>
       </c>
@@ -20443,7 +20464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -20478,7 +20499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>0</v>
       </c>
@@ -20513,7 +20534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>0</v>
       </c>
@@ -20548,7 +20569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -20583,7 +20604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>0</v>
       </c>
@@ -20614,7 +20635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -20645,7 +20666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -20678,7 +20699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -20711,7 +20732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>0</v>
       </c>
@@ -20744,7 +20765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>0</v>
       </c>
@@ -20777,7 +20798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -20812,7 +20833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -20847,7 +20868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>0</v>
       </c>
@@ -20882,7 +20903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>0</v>
       </c>
@@ -20917,7 +20938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>0</v>
       </c>
@@ -20952,7 +20973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -20987,7 +21008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -21022,7 +21043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>0</v>
       </c>
@@ -21057,7 +21078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -21092,7 +21113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -21127,7 +21148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -21162,7 +21183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>0</v>
       </c>
@@ -21197,7 +21218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>0</v>
       </c>
@@ -21232,7 +21253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -21267,7 +21288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -21302,7 +21323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>0</v>
       </c>
@@ -21337,7 +21358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -21372,7 +21393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>0</v>
       </c>
@@ -21407,7 +21428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>0</v>
       </c>
@@ -21442,7 +21463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -21477,7 +21498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -21512,7 +21533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -21547,7 +21568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>0</v>
       </c>
@@ -21582,7 +21603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>0</v>
       </c>
@@ -21617,7 +21638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -21652,7 +21673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -21687,7 +21708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -21722,7 +21743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>0</v>
       </c>
@@ -21757,7 +21778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -21792,7 +21813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -21827,7 +21848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -21862,7 +21883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>0</v>
       </c>
@@ -21897,7 +21918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -21932,7 +21953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>0</v>
       </c>
@@ -21967,7 +21988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -22002,7 +22023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -22037,7 +22058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -22072,7 +22093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>0</v>
       </c>
@@ -22107,7 +22128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>0</v>
       </c>
@@ -22142,7 +22163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -22177,7 +22198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -22212,7 +22233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>0</v>
       </c>
@@ -22247,7 +22268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>0</v>
       </c>
@@ -22282,7 +22303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>0</v>
       </c>
@@ -22313,7 +22334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -22344,7 +22365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>0</v>
       </c>
@@ -22377,7 +22398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>0</v>
       </c>
@@ -22410,7 +22431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -22443,7 +22464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>0</v>
       </c>
@@ -22476,7 +22497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -22511,7 +22532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>0</v>
       </c>
@@ -22546,7 +22567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>0</v>
       </c>
@@ -22581,7 +22602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -22616,7 +22637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -22651,7 +22672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -22686,7 +22707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -22721,7 +22742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>0</v>
       </c>
@@ -22756,7 +22777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>0</v>
       </c>
@@ -22791,7 +22812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>0</v>
       </c>
@@ -22826,7 +22847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>0</v>
       </c>
@@ -22861,7 +22882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>0</v>
       </c>
@@ -22896,7 +22917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -22931,7 +22952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>0</v>
       </c>
@@ -22966,7 +22987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>0</v>
       </c>
@@ -23001,7 +23022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -23036,7 +23057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>0</v>
       </c>
@@ -23071,7 +23092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>0</v>
       </c>
@@ -23106,7 +23127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>0</v>
       </c>
@@ -23141,7 +23162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>0</v>
       </c>
@@ -23176,7 +23197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>0</v>
       </c>
@@ -23211,7 +23232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>0</v>
       </c>
@@ -23246,7 +23267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -23281,7 +23302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -23316,7 +23337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>0</v>
       </c>
@@ -23351,7 +23372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>0</v>
       </c>
@@ -23383,7 +23404,7 @@
         <v>34838</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -23418,7 +23439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>0</v>
       </c>
@@ -23450,7 +23471,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -23485,7 +23506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -23517,7 +23538,7 @@
         <v>30681</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>0</v>
       </c>
@@ -23552,7 +23573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -23587,7 +23608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -23622,7 +23643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -23657,7 +23678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -23690,7 +23711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>0</v>
       </c>
@@ -23723,7 +23744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -23756,7 +23777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>0</v>
       </c>
@@ -23789,7 +23810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -23822,7 +23843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>0</v>
       </c>
@@ -23855,7 +23876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -23890,7 +23911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>0</v>
       </c>
@@ -23925,7 +23946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -23960,7 +23981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>0</v>
       </c>
@@ -23995,7 +24016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -24030,7 +24051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -24065,7 +24086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -24100,7 +24121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -24135,7 +24156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>0</v>
       </c>
@@ -24170,7 +24191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -24205,7 +24226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -24240,7 +24261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>0</v>
       </c>
@@ -24275,7 +24296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>0</v>
       </c>
@@ -24310,7 +24331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>0</v>
       </c>
@@ -24345,7 +24366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -24378,7 +24399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>0</v>
       </c>
@@ -24411,7 +24432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -24446,7 +24467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>0</v>
       </c>
@@ -24481,7 +24502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>0</v>
       </c>
@@ -24516,7 +24537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -24551,7 +24572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>0</v>
       </c>
@@ -24586,7 +24607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -24621,7 +24642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>0</v>
       </c>
@@ -24656,7 +24677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -24691,7 +24712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -24726,7 +24747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>0</v>
       </c>
@@ -24761,7 +24782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -24796,7 +24817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -24831,7 +24852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>0</v>
       </c>
@@ -24866,7 +24887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -24901,7 +24922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>0</v>
       </c>
@@ -24936,7 +24957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -24971,7 +24992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -25006,7 +25027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>0</v>
       </c>
@@ -25041,7 +25062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>0</v>
       </c>
@@ -25076,7 +25097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -25111,7 +25132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -25146,7 +25167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>0</v>
       </c>
@@ -25181,7 +25202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>0</v>
       </c>
@@ -25216,7 +25237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>0</v>
       </c>
@@ -25251,7 +25272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>0</v>
       </c>
@@ -25286,7 +25307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -25321,7 +25342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -25356,7 +25377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>0</v>
       </c>
@@ -25391,7 +25412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>0</v>
       </c>
@@ -25424,7 +25445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -25457,7 +25478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -25490,7 +25511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -25523,7 +25544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>0</v>
       </c>
@@ -25556,7 +25577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>0</v>
       </c>
@@ -25589,7 +25610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -25624,7 +25645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>0</v>
       </c>
@@ -25659,7 +25680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -25694,7 +25715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -25729,7 +25750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>0</v>
       </c>
@@ -25764,7 +25785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>0</v>
       </c>
@@ -25799,7 +25820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -25834,7 +25855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>0</v>
       </c>
@@ -25869,7 +25890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>0</v>
       </c>
@@ -25904,7 +25925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>0</v>
       </c>
@@ -25939,7 +25960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>0</v>
       </c>
@@ -25974,7 +25995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>0</v>
       </c>
@@ -26009,7 +26030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>0</v>
       </c>
@@ -26044,7 +26065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>0</v>
       </c>
@@ -26079,7 +26100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -26114,7 +26135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>0</v>
       </c>
@@ -26149,7 +26170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>0</v>
       </c>
@@ -26184,7 +26205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -26219,7 +26240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -26254,7 +26275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -26289,7 +26310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>0</v>
       </c>
@@ -26324,7 +26345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -26359,7 +26380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>0</v>
       </c>
@@ -26394,7 +26415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -26429,7 +26450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -26464,7 +26485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -26499,7 +26520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -26534,7 +26555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -26569,7 +26590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -26604,7 +26625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -26639,7 +26660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -26674,7 +26695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -26709,7 +26730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -26744,7 +26765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -26779,7 +26800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -26812,7 +26833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -26845,7 +26866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -26878,7 +26899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -26911,7 +26932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -26944,7 +26965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -26977,7 +26998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -27012,7 +27033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -27047,7 +27068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -27082,7 +27103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -27117,7 +27138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -27150,7 +27171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -27183,7 +27204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -27216,7 +27237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -27249,7 +27270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -27282,7 +27303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -27315,7 +27336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -27350,7 +27371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -27385,7 +27406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -27420,7 +27441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -27455,7 +27476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -27490,7 +27511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -27525,7 +27546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -27560,7 +27581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -27595,7 +27616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -27630,7 +27651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -27665,7 +27686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -27700,7 +27721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -27735,7 +27756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -27770,7 +27791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -27805,7 +27826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -27840,7 +27861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -27875,7 +27896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -27910,7 +27931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -27945,7 +27966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -27980,7 +28001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -28015,7 +28036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -28050,7 +28071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -28085,7 +28106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -28120,7 +28141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -28155,7 +28176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -28190,7 +28211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -28225,7 +28246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -28260,7 +28281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -28295,7 +28316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -28330,7 +28351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -28365,7 +28386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -28400,7 +28421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -28435,7 +28456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -28470,7 +28491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -28505,7 +28526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -28540,7 +28561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -28575,7 +28596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -28610,7 +28631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -28645,7 +28666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -28680,7 +28701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -28715,7 +28736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>0</v>
       </c>
@@ -28750,7 +28771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>0</v>
       </c>
@@ -28785,7 +28806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -28820,7 +28841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>0</v>
       </c>
@@ -28855,7 +28876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -28890,7 +28911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>0</v>
       </c>
@@ -28925,7 +28946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -28960,7 +28981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -28995,7 +29016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -29030,7 +29051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>0</v>
       </c>
@@ -29065,7 +29086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -29100,7 +29121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -29135,7 +29156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>0</v>
       </c>
@@ -29168,7 +29189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -29201,7 +29222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>0</v>
       </c>
@@ -29234,7 +29255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>0</v>
       </c>
@@ -29267,7 +29288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -29300,7 +29321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -29333,7 +29354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -29368,7 +29389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>0</v>
       </c>
@@ -29403,7 +29424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -29438,7 +29459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -29473,7 +29494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>0</v>
       </c>
@@ -29506,7 +29527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>0</v>
       </c>
@@ -29539,7 +29560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -29572,7 +29593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -29605,7 +29626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>0</v>
       </c>
@@ -29638,7 +29659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -29673,7 +29694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -29708,7 +29729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>0</v>
       </c>
@@ -29743,7 +29764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>0</v>
       </c>
@@ -29778,7 +29799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -29811,7 +29832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -29844,7 +29865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>0</v>
       </c>
@@ -29877,7 +29898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -29910,7 +29931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -29943,7 +29964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>0</v>
       </c>
@@ -29976,7 +29997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -30011,7 +30032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>0</v>
       </c>
@@ -30046,7 +30067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>0</v>
       </c>
@@ -30081,7 +30102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -30116,7 +30137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -30151,7 +30172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -30186,7 +30207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>0</v>
       </c>
@@ -30221,7 +30242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>0</v>
       </c>
@@ -30256,7 +30277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>0</v>
       </c>
@@ -30291,7 +30312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -30326,7 +30347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>0</v>
       </c>
@@ -30361,7 +30382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>0</v>
       </c>
@@ -30396,7 +30417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -30431,7 +30452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>0</v>
       </c>
@@ -30466,7 +30487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>1</v>
       </c>
@@ -30497,7 +30518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>1</v>
       </c>
@@ -30528,7 +30549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>1</v>
       </c>
@@ -30559,7 +30580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>1</v>
       </c>
@@ -30590,7 +30611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>1</v>
       </c>
@@ -30623,7 +30644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>1</v>
       </c>
@@ -30656,7 +30677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>1</v>
       </c>
@@ -30691,7 +30712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>1</v>
       </c>
@@ -30726,7 +30747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>1</v>
       </c>
@@ -30761,7 +30782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>1</v>
       </c>
@@ -30796,7 +30817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -30827,7 +30848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -30858,7 +30879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>0</v>
       </c>
@@ -30891,7 +30912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>0</v>
       </c>
@@ -30924,7 +30945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -30957,7 +30978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -30990,7 +31011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -31025,7 +31046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -31060,7 +31081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>0</v>
       </c>
@@ -31095,7 +31116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>0</v>
       </c>
@@ -31130,7 +31151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>0</v>
       </c>
@@ -31163,7 +31184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>0</v>
       </c>
@@ -31196,7 +31217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>0</v>
       </c>
@@ -31229,7 +31250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -31262,7 +31283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -31291,7 +31312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>0</v>
       </c>
@@ -31320,7 +31341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -31355,7 +31376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -31390,7 +31411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>0</v>
       </c>
@@ -31425,7 +31446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>0</v>
       </c>
@@ -31460,7 +31481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -31495,7 +31516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -31530,7 +31551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -31565,7 +31586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>0</v>
       </c>
@@ -31600,7 +31621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -31635,7 +31656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>0</v>
       </c>
@@ -31670,7 +31691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -31705,7 +31726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>0</v>
       </c>
@@ -31740,7 +31761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -31775,7 +31796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -31810,7 +31831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>0</v>
       </c>
@@ -31845,7 +31866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>0</v>
       </c>
@@ -31880,7 +31901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -31915,7 +31936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>0</v>
       </c>
@@ -31950,7 +31971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>0</v>
       </c>
@@ -31985,7 +32006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -32020,7 +32041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>0</v>
       </c>
@@ -32055,7 +32076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -32090,7 +32111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -32125,7 +32146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -32160,7 +32181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>0</v>
       </c>
@@ -32185,7 +32206,7 @@
       <c r="J848" s="12"/>
       <c r="K848" s="2"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>0</v>
       </c>
@@ -32210,7 +32231,7 @@
       <c r="J849" s="12"/>
       <c r="K849" s="2"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>0</v>
       </c>
@@ -32241,7 +32262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>0</v>
       </c>
@@ -32266,7 +32287,7 @@
       <c r="J851" s="12"/>
       <c r="K851" s="2"/>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -32291,7 +32312,7 @@
       <c r="J852" s="12"/>
       <c r="K852" s="2"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -32326,7 +32347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>0</v>
       </c>
@@ -32361,7 +32382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>0</v>
       </c>
@@ -32396,7 +32417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -32431,7 +32452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>0</v>
       </c>
@@ -32460,7 +32481,7 @@
       </c>
       <c r="K857" s="2"/>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -32489,7 +32510,7 @@
       </c>
       <c r="K858" s="2"/>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>0</v>
       </c>
@@ -32518,7 +32539,7 @@
       </c>
       <c r="K859" s="2"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>0</v>
       </c>
@@ -32547,7 +32568,7 @@
       </c>
       <c r="K860" s="2"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>0</v>
       </c>
@@ -32582,7 +32603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -32617,7 +32638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>0</v>
       </c>
@@ -32652,7 +32673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>0</v>
       </c>
@@ -32687,7 +32708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -32722,7 +32743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -32757,7 +32778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>0</v>
       </c>
@@ -32788,7 +32809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -32819,7 +32840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -32854,7 +32875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -32889,7 +32910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -32924,7 +32945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>0</v>
       </c>
@@ -32959,7 +32980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>0</v>
       </c>
@@ -32994,7 +33015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>0</v>
       </c>
@@ -33029,7 +33050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -33064,7 +33085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>0</v>
       </c>
@@ -33099,7 +33120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>0</v>
       </c>
@@ -33124,7 +33145,7 @@
       <c r="J877" s="12"/>
       <c r="K877" s="2"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>0</v>
       </c>
@@ -33149,7 +33170,7 @@
       <c r="J878" s="12"/>
       <c r="K878" s="2"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -33174,7 +33195,7 @@
       <c r="J879" s="12"/>
       <c r="K879" s="2"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -33199,7 +33220,7 @@
       <c r="J880" s="12"/>
       <c r="K880" s="2"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -33230,7 +33251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -33265,7 +33286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>0</v>
       </c>
@@ -33300,7 +33321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>0</v>
       </c>
@@ -33335,7 +33356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>0</v>
       </c>
@@ -33370,7 +33391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>0</v>
       </c>
@@ -33405,7 +33426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>0</v>
       </c>
@@ -33440,7 +33461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>0</v>
       </c>
@@ -33475,7 +33496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>0</v>
       </c>
@@ -33510,7 +33531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -33545,7 +33566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>0</v>
       </c>
@@ -33580,7 +33601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -33615,7 +33636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>0</v>
       </c>
@@ -33646,7 +33667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>0</v>
       </c>
@@ -33677,7 +33698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>0</v>
       </c>
@@ -33708,7 +33729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="896" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>0</v>
       </c>
@@ -33739,7 +33760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="897" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>0</v>
       </c>
@@ -33770,7 +33791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="898" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>0</v>
       </c>
@@ -33801,7 +33822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="899" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -33836,7 +33857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="900" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>0</v>
       </c>
@@ -33871,7 +33892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="901" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>0</v>
       </c>
@@ -33906,7 +33927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="902" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>0</v>
       </c>
@@ -33941,7 +33962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="903" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -33976,7 +33997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>0</v>
       </c>
@@ -34011,7 +34032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="905" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -34046,7 +34067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="906" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -34081,7 +34102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="907" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>0</v>
       </c>
@@ -34116,7 +34137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="908" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>0</v>
       </c>
@@ -34151,7 +34172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="909" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>0</v>
       </c>
@@ -34186,7 +34207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="910" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>0</v>
       </c>
@@ -34221,7 +34242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="911" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -34256,7 +34277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="912" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -34291,7 +34312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="913" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>0</v>
       </c>
@@ -34326,7 +34347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>0</v>
       </c>
@@ -34361,7 +34382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="915" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -34396,7 +34417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="916" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -34431,7 +34452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="917" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>0</v>
       </c>
@@ -34466,7 +34487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="918" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>0</v>
       </c>
@@ -34501,7 +34522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="919" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>0</v>
       </c>
@@ -34536,7 +34557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="920" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>0</v>
       </c>
@@ -34571,7 +34592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>0</v>
       </c>
@@ -34606,7 +34627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>0</v>
       </c>
@@ -34641,7 +34662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="923" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -34676,7 +34697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="924" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>0</v>
       </c>
@@ -34711,7 +34732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="925" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>0</v>
       </c>
@@ -34746,7 +34767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="926" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -34781,7 +34802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="927" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -34816,7 +34837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="928" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -34851,7 +34872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="929" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>0</v>
       </c>
@@ -34886,7 +34907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="930" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -34921,7 +34942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="931" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>0</v>
       </c>
@@ -34956,7 +34977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="932" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>0</v>
       </c>
@@ -34991,7 +35012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="933" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -35026,7 +35047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="934" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>0</v>
       </c>
@@ -35061,7 +35082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="935" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -35096,7 +35117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="936" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>0</v>
       </c>
@@ -35131,7 +35152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="937" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -35166,7 +35187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="938" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>0</v>
       </c>
@@ -35201,7 +35222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="939" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -35236,7 +35257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="940" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>0</v>
       </c>
@@ -35271,7 +35292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="941" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>0</v>
       </c>
@@ -35306,7 +35327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="942" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -35341,7 +35362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="943" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>0</v>
       </c>
@@ -35376,7 +35397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="944" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -35411,7 +35432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="945" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -35446,7 +35467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="946" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -35481,7 +35502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="947" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -35516,7 +35537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="948" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>0</v>
       </c>
@@ -35551,7 +35572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="949" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>0</v>
       </c>
@@ -35586,7 +35607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="950" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>0</v>
       </c>
@@ -35621,7 +35642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="951" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>0</v>
       </c>
@@ -35656,7 +35677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="952" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>0</v>
       </c>
@@ -35691,7 +35712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="953" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -35726,7 +35747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="954" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -35761,7 +35782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="955" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>0</v>
       </c>
@@ -35796,7 +35817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="956" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -35831,7 +35852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="957" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>0</v>
       </c>
@@ -35866,7 +35887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="958" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -35901,7 +35922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="959" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>0</v>
       </c>
@@ -35936,7 +35957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="960" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -35971,7 +35992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="961" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>0</v>
       </c>
@@ -36004,7 +36025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>0</v>
       </c>
@@ -36039,7 +36060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="963" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -36074,7 +36095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="964" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -36109,7 +36130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="965" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -36144,7 +36165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="966" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>0</v>
       </c>
@@ -36179,7 +36200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="967" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>0</v>
       </c>
@@ -36214,7 +36235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="968" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>0</v>
       </c>
@@ -36249,7 +36270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="969" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>0</v>
       </c>
@@ -36284,7 +36305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="970" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>0</v>
       </c>
@@ -36319,7 +36340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="971" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>0</v>
       </c>
@@ -36354,7 +36375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="972" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>0</v>
       </c>
@@ -36389,7 +36410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>0</v>
       </c>
@@ -36424,7 +36445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="974" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>0</v>
       </c>
@@ -36455,7 +36476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>0</v>
       </c>
@@ -36490,7 +36511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="976" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>0</v>
       </c>
@@ -36525,7 +36546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="977" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>0</v>
       </c>
@@ -36560,7 +36581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="978" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>0</v>
       </c>
@@ -36595,7 +36616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="979" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>0</v>
       </c>
@@ -36630,7 +36651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="980" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>0</v>
       </c>
@@ -36665,7 +36686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="981" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -36700,7 +36721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="982" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>0</v>
       </c>
@@ -36735,7 +36756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="983" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>0</v>
       </c>
@@ -36770,7 +36791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="984" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>0</v>
       </c>
@@ -36805,7 +36826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="985" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -36840,7 +36861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="986" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>0</v>
       </c>
@@ -36875,7 +36896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="987" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>0</v>
       </c>
@@ -36910,7 +36931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="988" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>0</v>
       </c>
@@ -36945,7 +36966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="989" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>0</v>
       </c>
@@ -36980,7 +37001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="990" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -37015,7 +37036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="991" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>0</v>
       </c>
@@ -37050,7 +37071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="992" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -37085,7 +37106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="993" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -37120,7 +37141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="994" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -37155,7 +37176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="995" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>0</v>
       </c>
@@ -37190,7 +37211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="996" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>0</v>
       </c>
@@ -37225,7 +37246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="997" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>0</v>
       </c>
@@ -37260,7 +37281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="998" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>0</v>
       </c>
@@ -37295,7 +37316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="999" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>0</v>
       </c>
@@ -37330,7 +37351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>0</v>
       </c>
@@ -37365,7 +37386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1001" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>0</v>
       </c>
@@ -37400,7 +37421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1002" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>0</v>
       </c>
@@ -37435,7 +37456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1003" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>0</v>
       </c>
@@ -37470,7 +37491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1004" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -37505,7 +37526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1005" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>0</v>
       </c>
@@ -37538,7 +37559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>0</v>
       </c>
@@ -37573,7 +37594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1007" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>0</v>
       </c>
@@ -37608,7 +37629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1008" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>0</v>
       </c>
@@ -37643,7 +37664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1009" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>0</v>
       </c>
@@ -37678,7 +37699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1010" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>0</v>
       </c>
@@ -37709,7 +37730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>0</v>
       </c>
@@ -37744,7 +37765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1012" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
         <v>0</v>
       </c>
@@ -37779,7 +37800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1013" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
         <v>0</v>
       </c>
@@ -37812,7 +37833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
         <v>0</v>
       </c>
@@ -37847,7 +37868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1015" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
         <v>0</v>
       </c>
@@ -37882,7 +37903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1016" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1016" s="1">
         <v>0</v>
       </c>
@@ -37913,7 +37934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
         <v>0</v>
       </c>
@@ -37948,7 +37969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1018" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
         <v>0</v>
       </c>
@@ -37983,7 +38004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1019" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
         <v>0</v>
       </c>
@@ -38018,7 +38039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1020" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
         <v>0</v>
       </c>
@@ -38053,7 +38074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1021" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
         <v>0</v>
       </c>
@@ -38088,7 +38109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1022" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
         <v>0</v>
       </c>
@@ -38123,7 +38144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
         <v>0</v>
       </c>
@@ -38158,7 +38179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
         <v>0</v>
       </c>
@@ -38193,7 +38214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
         <v>0</v>
       </c>
@@ -38228,7 +38249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
         <v>0</v>
       </c>
@@ -38263,7 +38284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1027" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
         <v>0</v>
       </c>
@@ -38298,7 +38319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1028" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
         <v>0</v>
       </c>
@@ -38333,7 +38354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1029" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
         <v>0</v>
       </c>
@@ -38368,7 +38389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1030" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
         <v>0</v>
       </c>
@@ -38403,7 +38424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1031" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
         <v>0</v>
       </c>
@@ -38438,7 +38459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1032" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
         <v>0</v>
       </c>
@@ -38473,7 +38494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="1">
         <v>0</v>
       </c>
@@ -38508,7 +38529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
         <v>0</v>
       </c>
@@ -38543,7 +38564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="1">
         <v>0</v>
       </c>
@@ -38578,7 +38599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1036" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="1">
         <v>0</v>
       </c>
@@ -38613,7 +38634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="1">
         <v>0</v>
       </c>
@@ -38648,7 +38669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="1">
         <v>0</v>
       </c>
@@ -38683,7 +38704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="1">
         <v>0</v>
       </c>
@@ -38718,7 +38739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="1">
         <v>0</v>
       </c>
@@ -38753,7 +38774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1041" s="1">
         <v>0</v>
       </c>
@@ -38788,7 +38809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1042" s="1">
         <v>0</v>
       </c>
@@ -38823,7 +38844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="1">
         <v>0</v>
       </c>
@@ -38858,7 +38879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1044" s="1">
         <v>0</v>
       </c>
@@ -38893,7 +38914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="1">
         <v>0</v>
       </c>
@@ -38928,7 +38949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="1">
         <v>0</v>
       </c>
@@ -38963,7 +38984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1047" s="1">
         <v>0</v>
       </c>
@@ -38998,7 +39019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="1">
         <v>0</v>
       </c>
@@ -39033,7 +39054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1049" s="1">
         <v>0</v>
       </c>
@@ -39068,7 +39089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1050" s="1">
         <v>0</v>
       </c>
@@ -39103,7 +39124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -39138,7 +39159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1052" s="1">
         <v>0</v>
       </c>
@@ -39173,7 +39194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1053" s="1">
         <v>0</v>
       </c>
@@ -39208,7 +39229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1054" s="1">
         <v>0</v>
       </c>
@@ -39243,7 +39264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1055" s="1">
         <v>0</v>
       </c>
@@ -39278,7 +39299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1056" s="1">
         <v>0</v>
       </c>
@@ -39313,7 +39334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1057" s="1">
         <v>0</v>
       </c>
@@ -39348,7 +39369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1058" s="1">
         <v>0</v>
       </c>
@@ -39383,7 +39404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1059" s="1">
         <v>0</v>
       </c>
@@ -39418,7 +39439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1060" s="1">
         <v>0</v>
       </c>
@@ -39453,7 +39474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1061" s="1">
         <v>0</v>
       </c>
@@ -39488,7 +39509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1062" s="1">
         <v>0</v>
       </c>
@@ -39523,7 +39544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1063" s="1">
         <v>0</v>
       </c>
@@ -39558,7 +39579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1064" s="1">
         <v>0</v>
       </c>
@@ -39593,7 +39614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1065" s="1">
         <v>0</v>
       </c>
@@ -39628,7 +39649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1066" s="1">
         <v>0</v>
       </c>
@@ -39663,7 +39684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1067" s="1">
         <v>0</v>
       </c>
@@ -39698,7 +39719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1068" s="1">
         <v>0</v>
       </c>
@@ -39733,7 +39754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1069" s="1">
         <v>0</v>
       </c>
@@ -39768,7 +39789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1070" s="1">
         <v>0</v>
       </c>
@@ -39803,7 +39824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1071" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1071" s="1">
         <v>0</v>
       </c>
@@ -39838,7 +39859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1072" s="1">
         <v>0</v>
       </c>
@@ -39873,7 +39894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1073" s="1">
         <v>0</v>
       </c>
@@ -39908,7 +39929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1074" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1074" s="1">
         <v>0</v>
       </c>
@@ -39943,7 +39964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1075" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1075" s="1">
         <v>0</v>
       </c>
@@ -39978,7 +39999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1076" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1076" s="1">
         <v>0</v>
       </c>
@@ -40013,7 +40034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1077" s="1">
         <v>0</v>
       </c>
@@ -40044,7 +40065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1078" s="1">
         <v>0</v>
       </c>
@@ -40075,7 +40096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1079" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1079" s="1">
         <v>0</v>
       </c>
@@ -40106,7 +40127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1080" s="1">
         <v>0</v>
       </c>
@@ -40137,7 +40158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1081" s="1">
         <v>0</v>
       </c>
@@ -40168,7 +40189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1082" s="1">
         <v>0</v>
       </c>
@@ -40199,7 +40220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1083" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1083" s="1">
         <v>0</v>
       </c>
@@ -40230,7 +40251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1084" s="1">
         <v>0</v>
       </c>
@@ -40261,7 +40282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1085" s="1">
         <v>0</v>
       </c>
@@ -40292,7 +40313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1086" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1086" s="1">
         <v>0</v>
       </c>
@@ -40324,7 +40345,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1086" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L1086" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Alberta"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1095">
     <sortCondition ref="C2:C1095"/>
   </sortState>
@@ -40350,7 +40377,8 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="4" customWidth="1"/>
     <col min="5" max="6" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>

--- a/Data/working_data_file.xlsx
+++ b/Data/working_data_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10313"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lauriercloud-my.sharepoint.com/personal/skiss_wlu_ca/Documents/projects_folder/News_deserts/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10501" documentId="8_{2FC82F62-ABEE-B542-B012-2CF671290486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0B876CC-544C-4F49-91F6-A5348EDE266E}"/>
+  <xr:revisionPtr revIDLastSave="10538" documentId="8_{2FC82F62-ABEE-B542-B012-2CF671290486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45DBDE0F-4692-644A-84B2-646800B416D5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil3" sheetId="4" r:id="rId1"/>
@@ -2891,12 +2891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N1086"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <pane ySplit="1" topLeftCell="A889" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A908" sqref="A903:XFD908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4830,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>11</v>
@@ -4865,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="B56" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
@@ -16585,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="B396" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>304</v>
@@ -16620,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="B397" s="1">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>304</v>
@@ -25277,7 +25276,7 @@
         <v>0</v>
       </c>
       <c r="B647" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C647" s="1" t="s">
         <v>318</v>
@@ -25312,7 +25311,7 @@
         <v>0</v>
       </c>
       <c r="B648" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C648" s="1" t="s">
         <v>318</v>
@@ -25347,7 +25346,7 @@
         <v>0</v>
       </c>
       <c r="B649" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C649" s="1" t="s">
         <v>318</v>
@@ -25382,7 +25381,7 @@
         <v>0</v>
       </c>
       <c r="B650" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C650" s="1" t="s">
         <v>318</v>
@@ -28461,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="B739" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C739" s="1" t="s">
         <v>318</v>
@@ -28496,7 +28495,7 @@
         <v>0</v>
       </c>
       <c r="B740" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C740" s="1" t="s">
         <v>318</v>
@@ -40345,13 +40344,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1086" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Alberta"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L1086" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1095">
     <sortCondition ref="C2:C1095"/>
   </sortState>
@@ -40369,7 +40362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
